--- a/biology/Microbiologie/Apostomatia/Apostomatia.xlsx
+++ b/biology/Microbiologie/Apostomatia/Apostomatia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apostomatia sont une sous-classe de ciliés de la classe des Oligohymenophorea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (30 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (30 septembre 2023) :
 Apostomatida Chatton &amp; Lwoff, 1928
 Astomatophorida Jankowksi, 1966
 Pilisuctorida Jankowksi, 1966</t>
@@ -544,9 +558,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Apostomatia Chatton &amp; Lwoff, 1928, publié en 1928 par les biologistes français Édouard Chatton et André Lwoff[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Apostomatia Chatton &amp; Lwoff, 1928, publié en 1928 par les biologistes français Édouard Chatton et André Lwoff.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>E. Chatton et A. Lwoff, « Sur la structure, l'évolution et les affinités des Opalinopsidae (Ciliés des Céphalopodes) », Comptes Rendus de l'Académie des Sciences, Paris, vol. 186,‎ 1928, p. 1382-1384</t>
         </is>
